--- a/result/compare/midaslarge/result-etroit.xlsx
+++ b/result/compare/midaslarge/result-etroit.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\midaslarge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB8B645-E23B-E848-8C63-5F7A1FA53E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2923AD-5829-4A2A-9B6C-671D97D78793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -677,7 +675,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>0.49056603773584906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,7 +687,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.625</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,7 +1328,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>0.67901234567901236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,7 +1340,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.625</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,8 +3415,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8950324" y="3302000"/>
-          <a:ext cx="8023225" cy="4705349"/>
+          <a:off x="8315324" y="3194050"/>
+          <a:ext cx="7388225" cy="4546599"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3983,13 +3981,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4030,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4075,7 +4073,7 @@
         <v>0.43778801843317972</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>0.51152073732718895</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -4165,49 +4163,49 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.625</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.46153846153846156</v>
+        <v>0.49056603773584906</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.625</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
-        <v>0.76</v>
+        <v>0.67901234567901236</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
-        <v>0.59907834101382484</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
